--- a/工作记录表.xlsx
+++ b/工作记录表.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="W" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_1.GR506_软件需求分析_2.GR6017_问题记录">W!$B$3</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,11 +36,6 @@
   </si>
   <si>
     <t>2015-12-14 18_30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.GR505 软件需求分析
-2.GR6017 问题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -85,6 +83,15 @@
   </si>
   <si>
     <t>Git 多人协作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.GR506音视频记录设备回放需求分析
+2.GR6017 问题记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GR505 宽带高速采集存储设备需求分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,7 +610,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -617,13 +624,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>0</v>
@@ -631,22 +638,22 @@
     </row>
     <row r="2" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -654,7 +661,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -662,7 +669,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -679,7 +686,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -695,7 +702,15 @@
         <v>42376.691400462965</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>42378.586574074077</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
@@ -733,8 +748,9 @@
     <hyperlink ref="C7" r:id="rId6"/>
     <hyperlink ref="C9" r:id="rId7"/>
     <hyperlink ref="B2" r:id="rId8" display="Work\工作总结\2015-12-04 14_56pm"/>
+    <hyperlink ref="B10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/工作记录表.xlsx
+++ b/工作记录表.xlsx
@@ -99,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,15 +163,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -233,7 +224,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -610,7 +601,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
